--- a/pred_ohlcv/54_21/2019-11-02 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ETZ ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>148637.9292544477</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>104152.3507544477</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>104174.9646544477</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>104174.9646544477</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>104359.7760544477</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>104359.7760544477</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>104403.7760544477</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>104403.7760544477</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>80155.55095444767</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-281138.9438455523</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-281138.9438455523</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-294953.2923455524</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-288853.2923455524</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-274282.6896455524</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-128287.9346455524</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-148810.4876455524</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-148800.4876455524</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-193128.8581455524</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-197367.9376455524</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-235702.6558455524</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-210753.3540931714</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-348705.0300931715</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-355790.4700931715</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-355778.4700931715</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-958678.0773931716</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ETZ ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>104348.7760544477</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>104359.7760544477</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>104403.7760544477</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>104403.7760544477</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>80155.55095444767</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-274908.2973455524</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-274282.6896455524</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-128287.9346455524</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-148810.4876455524</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-148800.4876455524</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-193128.8581455524</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-197367.9376455524</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-210753.3540931714</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-224602.4340931714</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-260614.4440931714</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-256747.4740931714</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-329417.9340931714</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-329513.8500931715</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-342662.4200931715</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-348745.0300931715</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-348705.0300931715</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-355790.4700931715</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-355778.4700931715</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-950400.2263931716</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-950390.2263931716</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-958678.0773931716</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1204540.566393171</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1199627.556193172</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1204741.192493171</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1204741.192493171</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1204741.192493171</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1200652.058593171</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1200642.058593171</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1233167.888593171</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1232361.664793171</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1232361.664793171</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
